--- a/output/XP_19657463000159.xlsx
+++ b/output/XP_19657463000159.xlsx
@@ -1274,10 +1274,10 @@
         <v>44165</v>
       </c>
       <c r="B81">
-        <v>0.98488262</v>
+        <v>0.9812825000000001</v>
       </c>
       <c r="C81">
-        <v>0.008664749480500555</v>
+        <v>0.006835263897166932</v>
       </c>
     </row>
   </sheetData>

--- a/output/XP_19657463000159.xlsx
+++ b/output/XP_19657463000159.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>XP DEBENTURES INCENTIVADAS CRÉDITO PRIVADO FI EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,898 +383,658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41759</v>
       </c>
       <c r="B2">
-        <v>0.001583300000000065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41790</v>
       </c>
       <c r="B3">
-        <v>0.02851574000000001</v>
-      </c>
-      <c r="C3">
         <v>0.02688986527630788</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41820</v>
       </c>
       <c r="B4">
-        <v>0.03538849000000011</v>
-      </c>
-      <c r="C4">
         <v>0.006682202063334586</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41851</v>
       </c>
       <c r="B5">
-        <v>0.04956771999999998</v>
-      </c>
-      <c r="C5">
         <v>0.01369459882637858</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41882</v>
       </c>
       <c r="B6">
-        <v>0.0710553599999999</v>
-      </c>
-      <c r="C6">
         <v>0.02047284762149504</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41912</v>
       </c>
       <c r="B7">
-        <v>0.05628311000000008</v>
-      </c>
-      <c r="C7">
         <v>-0.01379223759264869</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41943</v>
       </c>
       <c r="B8">
-        <v>0.06898143000000001</v>
-      </c>
-      <c r="C8">
         <v>0.01202170126529811</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41973</v>
       </c>
       <c r="B9">
-        <v>0.08128233000000007</v>
-      </c>
-      <c r="C9">
         <v>0.01150712225188055</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42004</v>
       </c>
       <c r="B10">
-        <v>0.07787823999999999</v>
-      </c>
-      <c r="C10">
         <v>-0.003148197196563896</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42035</v>
       </c>
       <c r="B11">
-        <v>0.1009977200000001</v>
-      </c>
-      <c r="C11">
         <v>0.02144906459935592</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42063</v>
       </c>
       <c r="B12">
-        <v>0.1067174799999999</v>
-      </c>
-      <c r="C12">
         <v>0.005195069795421503</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42094</v>
       </c>
       <c r="B13">
-        <v>0.1084105900000001</v>
-      </c>
-      <c r="C13">
         <v>0.00152984843069448</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42124</v>
       </c>
       <c r="B14">
-        <v>0.11752037</v>
-      </c>
-      <c r="C14">
         <v>0.008218777483892437</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42155</v>
       </c>
       <c r="B15">
-        <v>0.1337459000000001</v>
-      </c>
-      <c r="C15">
         <v>0.01451922527371918</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42185</v>
       </c>
       <c r="B16">
-        <v>0.1427383499999999</v>
-      </c>
-      <c r="C16">
         <v>0.00793162736023989</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42216</v>
       </c>
       <c r="B17">
-        <v>0.15329214</v>
-      </c>
-      <c r="C17">
         <v>0.009235526225229274</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42247</v>
       </c>
       <c r="B18">
-        <v>0.14226501</v>
-      </c>
-      <c r="C18">
         <v>-0.009561436879297558</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42277</v>
       </c>
       <c r="B19">
-        <v>0.14762477</v>
-      </c>
-      <c r="C19">
         <v>0.004692221116008755</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42308</v>
       </c>
       <c r="B20">
-        <v>0.1650848300000001</v>
-      </c>
-      <c r="C20">
         <v>0.01521408430387927</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42338</v>
       </c>
       <c r="B21">
-        <v>0.17878018</v>
-      </c>
-      <c r="C21">
         <v>0.01175480930431472</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42369</v>
       </c>
       <c r="B22">
-        <v>0.2051080599999999</v>
-      </c>
-      <c r="C22">
         <v>0.02233485126972523</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42400</v>
       </c>
       <c r="B23">
-        <v>0.2240897399999999</v>
-      </c>
-      <c r="C23">
         <v>0.01575101904139609</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42429</v>
       </c>
       <c r="B24">
-        <v>0.2438515000000001</v>
-      </c>
-      <c r="C24">
         <v>0.0161440451253192</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42460</v>
       </c>
       <c r="B25">
-        <v>0.2633441000000001</v>
-      </c>
-      <c r="C25">
         <v>0.01567116331812923</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42490</v>
       </c>
       <c r="B26">
-        <v>0.2836517700000001</v>
-      </c>
-      <c r="C26">
         <v>0.01607453582915386</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42521</v>
       </c>
       <c r="B27">
-        <v>0.29175426</v>
-      </c>
-      <c r="C27">
         <v>0.006312062343823976</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42551</v>
       </c>
       <c r="B28">
-        <v>0.29377944</v>
-      </c>
-      <c r="C28">
         <v>0.001567774972927038</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42582</v>
       </c>
       <c r="B29">
-        <v>0.32154573</v>
-      </c>
-      <c r="C29">
         <v>0.02146137830108041</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42613</v>
       </c>
       <c r="B30">
-        <v>0.35087774</v>
-      </c>
-      <c r="C30">
         <v>0.02219522891576364</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42643</v>
       </c>
       <c r="B31">
-        <v>0.3647872400000001</v>
-      </c>
-      <c r="C31">
         <v>0.01029663868767283</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42674</v>
       </c>
       <c r="B32">
-        <v>0.3675724600000001</v>
-      </c>
-      <c r="C32">
         <v>0.002040772303820715</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42704</v>
       </c>
       <c r="B33">
-        <v>0.36195131</v>
-      </c>
-      <c r="C33">
         <v>-0.00411031237057824</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42735</v>
       </c>
       <c r="B34">
-        <v>0.3663044900000001</v>
-      </c>
-      <c r="C34">
         <v>0.003196281664430423</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42766</v>
       </c>
       <c r="B35">
-        <v>0.3887756</v>
-      </c>
-      <c r="C35">
         <v>0.01644663408813063</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42794</v>
       </c>
       <c r="B36">
-        <v>0.4167807699999999</v>
-      </c>
-      <c r="C36">
         <v>0.02016536724867568</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42825</v>
       </c>
       <c r="B37">
-        <v>0.4400396</v>
-      </c>
-      <c r="C37">
         <v>0.01641667539008185</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42855</v>
       </c>
       <c r="B38">
-        <v>0.4444477200000001</v>
-      </c>
-      <c r="C38">
         <v>0.003061110263912203</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42886</v>
       </c>
       <c r="B39">
-        <v>0.4275305899999999</v>
-      </c>
-      <c r="C39">
         <v>-0.01171183267193654</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42916</v>
       </c>
       <c r="B40">
-        <v>0.4347794599999999</v>
-      </c>
-      <c r="C40">
         <v>0.005077908698264633</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42947</v>
       </c>
       <c r="B41">
-        <v>0.4820061</v>
-      </c>
-      <c r="C41">
         <v>0.03291560920449754</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42978</v>
       </c>
       <c r="B42">
-        <v>0.49576883</v>
-      </c>
-      <c r="C42">
         <v>0.009286554218636445</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43008</v>
       </c>
       <c r="B43">
-        <v>0.5111089900000001</v>
-      </c>
-      <c r="C43">
         <v>0.01025570241358764</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43039</v>
       </c>
       <c r="B44">
-        <v>0.5052318099999999</v>
-      </c>
-      <c r="C44">
         <v>-0.003889315753458744</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43069</v>
       </c>
       <c r="B45">
-        <v>0.50006708</v>
-      </c>
-      <c r="C45">
         <v>-0.003431185791908042</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43100</v>
       </c>
       <c r="B46">
-        <v>0.51183394</v>
-      </c>
-      <c r="C46">
         <v>0.007844222539701295</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43131</v>
       </c>
       <c r="B47">
-        <v>0.53903667</v>
-      </c>
-      <c r="C47">
         <v>0.01799319970287216</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43159</v>
       </c>
       <c r="B48">
-        <v>0.54715538</v>
-      </c>
-      <c r="C48">
         <v>0.005275189446915407</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43190</v>
       </c>
       <c r="B49">
-        <v>0.57269272</v>
-      </c>
-      <c r="C49">
         <v>0.01650599566799826</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43220</v>
       </c>
       <c r="B50">
-        <v>0.5779319000000001</v>
-      </c>
-      <c r="C50">
         <v>0.00333134370966004</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43251</v>
       </c>
       <c r="B51">
-        <v>0.5546962</v>
-      </c>
-      <c r="C51">
         <v>-0.014725413688639</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43281</v>
       </c>
       <c r="B52">
-        <v>0.56301807</v>
-      </c>
-      <c r="C52">
         <v>0.005352730649242021</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43312</v>
       </c>
       <c r="B53">
-        <v>0.59077029</v>
-      </c>
-      <c r="C53">
         <v>0.01775553369002325</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43343</v>
       </c>
       <c r="B54">
-        <v>0.5962106199999999</v>
-      </c>
-      <c r="C54">
         <v>0.003419934376571732</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43373</v>
       </c>
       <c r="B55">
-        <v>0.6110276699999999</v>
-      </c>
-      <c r="C55">
         <v>0.00928264090862907</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43404</v>
       </c>
       <c r="B56">
-        <v>0.66657375</v>
-      </c>
-      <c r="C56">
         <v>0.03447866292699997</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43434</v>
       </c>
       <c r="B57">
-        <v>0.67610087</v>
-      </c>
-      <c r="C57">
         <v>0.005716590699931468</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43465</v>
       </c>
       <c r="B58">
-        <v>0.6978354200000001</v>
-      </c>
-      <c r="C58">
         <v>0.01296732815370483</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43496</v>
       </c>
       <c r="B59">
-        <v>0.7309177099999999</v>
-      </c>
-      <c r="C59">
         <v>0.01948498047001501</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43524</v>
       </c>
       <c r="B60">
-        <v>0.7434316599999999</v>
-      </c>
-      <c r="C60">
         <v>0.007229662003978232</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43555</v>
       </c>
       <c r="B61">
-        <v>0.75397994</v>
-      </c>
-      <c r="C61">
         <v>0.006050297377300229</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43585</v>
       </c>
       <c r="B62">
-        <v>0.77435721</v>
-      </c>
-      <c r="C62">
         <v>0.01161773264065946</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43616</v>
       </c>
       <c r="B63">
-        <v>0.8088474299999999</v>
-      </c>
-      <c r="C63">
         <v>0.01943814909738495</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43646</v>
       </c>
       <c r="B64">
-        <v>0.84656742</v>
-      </c>
-      <c r="C64">
         <v>0.02085305226654754</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43677</v>
       </c>
       <c r="B65">
-        <v>0.8597182299999999</v>
-      </c>
-      <c r="C65">
         <v>0.007121760005925015</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43708</v>
       </c>
       <c r="B66">
-        <v>0.8552012099999999</v>
-      </c>
-      <c r="C66">
         <v>-0.002428873324535785</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43738</v>
       </c>
       <c r="B67">
-        <v>0.8857811900000001</v>
-      </c>
-      <c r="C67">
         <v>0.01648337648507692</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43769</v>
       </c>
       <c r="B68">
-        <v>0.90551947</v>
-      </c>
-      <c r="C68">
         <v>0.01046689833617442</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43799</v>
       </c>
       <c r="B69">
-        <v>0.87657735</v>
-      </c>
-      <c r="C69">
         <v>-0.01518857217449476</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43830</v>
       </c>
       <c r="B70">
-        <v>0.90348308</v>
-      </c>
-      <c r="C70">
         <v>0.01433766106150647</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43861</v>
       </c>
       <c r="B71">
-        <v>0.9210816500000001</v>
-      </c>
-      <c r="C71">
         <v>0.00924545649231634</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43890</v>
       </c>
       <c r="B72">
-        <v>0.93066688</v>
-      </c>
-      <c r="C72">
         <v>0.004989496412086236</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43921</v>
       </c>
       <c r="B73">
-        <v>0.8432598</v>
-      </c>
-      <c r="C73">
         <v>-0.04527299914110505</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43951</v>
       </c>
       <c r="B74">
-        <v>0.8609629000000001</v>
-      </c>
-      <c r="C74">
         <v>0.009604234845245418</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43982</v>
       </c>
       <c r="B75">
-        <v>0.8936894900000001</v>
-      </c>
-      <c r="C75">
         <v>0.01758583688046667</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>44012</v>
       </c>
       <c r="B76">
-        <v>0.92196674</v>
-      </c>
-      <c r="C76">
         <v>0.01493235831392825</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>44043</v>
       </c>
       <c r="B77">
-        <v>0.96045717</v>
-      </c>
-      <c r="C77">
         <v>0.02002658485130704</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>44074</v>
       </c>
       <c r="B78">
-        <v>0.9600452500000001</v>
-      </c>
-      <c r="C78">
         <v>-0.0002101142561558023</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>44104</v>
       </c>
       <c r="B79">
-        <v>0.9531511800000001</v>
-      </c>
-      <c r="C79">
         <v>-0.003517301450055799</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>44135</v>
       </c>
       <c r="B80">
-        <v>0.96783185</v>
-      </c>
-      <c r="C80">
         <v>0.007516402288941126</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>44165</v>
       </c>
       <c r="B81">
-        <v>0.9812825000000001</v>
-      </c>
-      <c r="C81">
-        <v>0.006835263897166932</v>
+        <v>0.006108052372462591</v>
       </c>
     </row>
   </sheetData>
